--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_7_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_7_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1449080.726140786</v>
+        <v>-1451978.559127238</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14815385.93902983</v>
+        <v>14815385.93902982</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>168.8004913014391</v>
+        <v>275.2357684876146</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>178.5165369003963</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -820,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>97.34004921506769</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,25 +859,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>127.004412707233</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,16 +896,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>362.3549570165042</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>30.750085651713</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -914,7 +914,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>132.997194893274</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>53.65867788356588</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>183.3250314417417</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>42.93165166918631</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>127.9907220675518</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H11" t="n">
-        <v>283.5630920045443</v>
+        <v>282.026047627202</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>199.1970568374742</v>
       </c>
       <c r="U11" t="n">
-        <v>249.3718516103037</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>11.93883531159537</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>86.27179222793463</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1543,7 +1543,7 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>67.18075159108356</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T13" t="n">
         <v>217.4819944627618</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081963</v>
+        <v>83.07554622347736</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>347.7039243400708</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1.749532638426756</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.80457674440903</v>
@@ -1819,10 +1819,10 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
-        <v>231.8950744699112</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -2011,7 +2011,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>27.31547498186472</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>6.600826611594925</v>
       </c>
     </row>
     <row r="20">
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2248,16 +2248,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>51.89407438975464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F25" t="n">
-        <v>28.23631843387907</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2719,16 +2719,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>99.21841339139942</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2950,7 +2950,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D31" t="n">
         <v>124.3308255261727</v>
@@ -2962,13 +2962,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H31" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3013,7 +3013,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y31" t="n">
         <v>194.3000058600551</v>
@@ -3187,10 +3187,10 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545295</v>
@@ -3199,13 +3199,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H34" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3329,7 +3329,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3898,7 +3898,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
         <v>124.3308255261727</v>
@@ -3907,16 +3907,16 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808199</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1738.858660051663</v>
+        <v>331.9589095856317</v>
       </c>
       <c r="C2" t="n">
-        <v>1568.353113282533</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D2" t="n">
-        <v>1210.087414675782</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4334,7 +4334,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2443.387305656314</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2112.324418312743</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2112.324418312743</v>
+        <v>1482.163839886645</v>
       </c>
       <c r="X2" t="n">
-        <v>1738.858660051663</v>
+        <v>1108.698081625565</v>
       </c>
       <c r="Y2" t="n">
-        <v>1738.858660051663</v>
+        <v>718.5587496497535</v>
       </c>
     </row>
     <row r="3">
@@ -4410,7 +4410,7 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
         <v>670.8219208598706</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>438.7118141694738</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>438.7118141694738</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>288.5951747571381</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>438.7118141694738</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>438.7118141694738</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>438.7118141694738</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1369.416431066817</v>
+        <v>1576.102522773261</v>
       </c>
       <c r="C5" t="n">
-        <v>1369.416431066817</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D5" t="n">
-        <v>1369.416431066817</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E5" t="n">
-        <v>983.628178468573</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V5" t="n">
-        <v>2112.324418312743</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W5" t="n">
-        <v>1759.555763042629</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="X5" t="n">
-        <v>1759.555763042629</v>
+        <v>1576.102522773261</v>
       </c>
       <c r="Y5" t="n">
-        <v>1369.416431066817</v>
+        <v>1576.102522773261</v>
       </c>
     </row>
     <row r="6">
@@ -4659,7 +4659,7 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>338.4002221349972</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>188.2835827226615</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>188.2835827226615</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>188.2835827226615</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4756,19 +4756,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1222.906241876376</v>
+        <v>1834.613306652565</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4835,19 +4835,19 @@
         <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2478.514423990285</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V8" t="n">
-        <v>2147.451536646714</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W8" t="n">
-        <v>1794.6828813766</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="X8" t="n">
-        <v>1794.6828813766</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="Y8" t="n">
-        <v>1609.506081940498</v>
+        <v>1834.613306652565</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4896,34 +4896,34 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>370.8558756644252</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>370.8558756644252</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>370.8558756644252</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U10" t="n">
-        <v>598.8454265624425</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="V10" t="n">
-        <v>598.8454265624425</v>
+        <v>325.2978374347316</v>
       </c>
       <c r="W10" t="n">
-        <v>598.8454265624425</v>
+        <v>325.2978374347316</v>
       </c>
       <c r="X10" t="n">
-        <v>370.8558756644252</v>
+        <v>97.30828653671426</v>
       </c>
       <c r="Y10" t="n">
-        <v>370.8558756644252</v>
+        <v>97.30828653671426</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2318.229508727735</v>
+        <v>2316.676938649612</v>
       </c>
       <c r="C11" t="n">
-        <v>1949.266991787324</v>
+        <v>1947.7144217092</v>
       </c>
       <c r="D11" t="n">
-        <v>1591.001293180573</v>
+        <v>1589.44872310245</v>
       </c>
       <c r="E11" t="n">
-        <v>1205.213040582329</v>
+        <v>1203.660470504205</v>
       </c>
       <c r="F11" t="n">
-        <v>794.2271357927214</v>
+        <v>792.6745657145977</v>
       </c>
       <c r="G11" t="n">
-        <v>380.2440287091278</v>
+        <v>378.6914586310042</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
@@ -5045,19 +5045,19 @@
         <v>842.9429223347665</v>
       </c>
       <c r="L11" t="n">
-        <v>1511.709654113219</v>
+        <v>1462.462702840541</v>
       </c>
       <c r="M11" t="n">
-        <v>2232.714216052256</v>
+        <v>2183.467264779579</v>
       </c>
       <c r="N11" t="n">
-        <v>2969.999193969362</v>
+        <v>2920.752242696685</v>
       </c>
       <c r="O11" t="n">
-        <v>3652.861230428501</v>
+        <v>3603.614279155823</v>
       </c>
       <c r="P11" t="n">
-        <v>4201.167179115849</v>
+        <v>4151.920227843171</v>
       </c>
       <c r="Q11" t="n">
         <v>4564.749365221855</v>
@@ -5072,19 +5072,19 @@
         <v>4404.156740844761</v>
       </c>
       <c r="U11" t="n">
-        <v>4152.265981642434</v>
+        <v>4150.71341156431</v>
       </c>
       <c r="V11" t="n">
-        <v>3821.203094298863</v>
+        <v>3819.650524220739</v>
       </c>
       <c r="W11" t="n">
-        <v>3468.434439028749</v>
+        <v>3466.881868950625</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.968680767669</v>
+        <v>3093.416110689545</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.829348791857</v>
+        <v>2703.276778713734</v>
       </c>
     </row>
     <row r="12">
@@ -5115,25 +5115,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>94.85569562249445</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>242.5036773743404</v>
+        <v>241.4646447998178</v>
       </c>
       <c r="K12" t="n">
-        <v>573.0124199376992</v>
+        <v>571.9733873631765</v>
       </c>
       <c r="L12" t="n">
-        <v>1063.74475278145</v>
+        <v>1062.705720206928</v>
       </c>
       <c r="M12" t="n">
-        <v>1655.763107033578</v>
+        <v>1321.433197946704</v>
       </c>
       <c r="N12" t="n">
-        <v>2277.859070432914</v>
+        <v>1321.433197946704</v>
       </c>
       <c r="O12" t="n">
-        <v>2277.859070432914</v>
+        <v>1868.309672946898</v>
       </c>
       <c r="P12" t="n">
         <v>2287.893191372974</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>859.8826849352739</v>
+        <v>495.0640298439646</v>
       </c>
       <c r="C13" t="n">
-        <v>847.8232553276018</v>
+        <v>495.0640298439646</v>
       </c>
       <c r="D13" t="n">
-        <v>697.7066159152661</v>
+        <v>495.0640298439646</v>
       </c>
       <c r="E13" t="n">
-        <v>549.793522332873</v>
+        <v>407.9208053713033</v>
       </c>
       <c r="F13" t="n">
-        <v>402.9035748349626</v>
+        <v>261.030857873393</v>
       </c>
       <c r="G13" t="n">
-        <v>235.6893800095415</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5224,25 +5224,25 @@
         <v>2361.52146919056</v>
       </c>
       <c r="S13" t="n">
-        <v>2361.52146919056</v>
+        <v>2178.35127892949</v>
       </c>
       <c r="T13" t="n">
-        <v>2141.842686904942</v>
+        <v>1958.672496643873</v>
       </c>
       <c r="U13" t="n">
-        <v>1852.766473219669</v>
+        <v>1669.596282958599</v>
       </c>
       <c r="V13" t="n">
-        <v>1598.081985013782</v>
+        <v>1414.911794752712</v>
       </c>
       <c r="W13" t="n">
-        <v>1308.664814976821</v>
+        <v>1125.494624715752</v>
       </c>
       <c r="X13" t="n">
-        <v>1080.675264078804</v>
+        <v>897.5050738177345</v>
       </c>
       <c r="Y13" t="n">
-        <v>859.8826849352739</v>
+        <v>676.7124946742043</v>
       </c>
     </row>
     <row r="14">
@@ -5303,16 +5303,16 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4605.365889165442</v>
+        <v>4606.918459243566</v>
       </c>
       <c r="T14" t="n">
-        <v>4404.156740844761</v>
+        <v>4405.709310922884</v>
       </c>
       <c r="U14" t="n">
-        <v>4150.71341156431</v>
+        <v>4152.265981642434</v>
       </c>
       <c r="V14" t="n">
-        <v>3819.650524220739</v>
+        <v>3821.203094298863</v>
       </c>
       <c r="W14" t="n">
         <v>3468.434439028749</v>
@@ -5355,28 +5355,28 @@
         <v>94.85569562249445</v>
       </c>
       <c r="J15" t="n">
-        <v>94.85569562249445</v>
+        <v>242.5036773743404</v>
       </c>
       <c r="K15" t="n">
-        <v>425.3644381858532</v>
+        <v>573.0124199376992</v>
       </c>
       <c r="L15" t="n">
-        <v>689.5215595293449</v>
+        <v>573.0124199376992</v>
       </c>
       <c r="M15" t="n">
-        <v>1281.539913781472</v>
+        <v>1165.030774189827</v>
       </c>
       <c r="N15" t="n">
-        <v>1903.635877180809</v>
+        <v>1787.126737589163</v>
       </c>
       <c r="O15" t="n">
-        <v>1903.635877180809</v>
+        <v>2334.003212589357</v>
       </c>
       <c r="P15" t="n">
-        <v>2323.219395606885</v>
+        <v>2518.454465358221</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.780669592131</v>
+        <v>2518.454465358221</v>
       </c>
       <c r="R15" t="n">
         <v>2553.780669592131</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>804.5872827756184</v>
+        <v>495.0640298439646</v>
       </c>
       <c r="C16" t="n">
-        <v>635.6510998477115</v>
+        <v>326.1278469160577</v>
       </c>
       <c r="D16" t="n">
-        <v>485.5344604353758</v>
+        <v>326.1278469160577</v>
       </c>
       <c r="E16" t="n">
-        <v>485.5344604353758</v>
+        <v>178.2147533336646</v>
       </c>
       <c r="F16" t="n">
-        <v>485.5344604353758</v>
+        <v>176.447548648385</v>
       </c>
       <c r="G16" t="n">
-        <v>318.3202656099546</v>
+        <v>176.447548648385</v>
       </c>
       <c r="H16" t="n">
         <v>176.447548648385</v>
@@ -5467,19 +5467,19 @@
         <v>1958.672496643873</v>
       </c>
       <c r="U16" t="n">
-        <v>1958.672496643873</v>
+        <v>1669.596282958599</v>
       </c>
       <c r="V16" t="n">
-        <v>1724.435047684366</v>
+        <v>1414.911794752712</v>
       </c>
       <c r="W16" t="n">
-        <v>1435.017877647406</v>
+        <v>1125.494624715752</v>
       </c>
       <c r="X16" t="n">
-        <v>1207.028326749388</v>
+        <v>897.5050738177345</v>
       </c>
       <c r="Y16" t="n">
-        <v>986.2357476058581</v>
+        <v>676.7124946742043</v>
       </c>
     </row>
     <row r="17">
@@ -5492,16 +5492,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,22 +5510,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5534,7 +5534,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,19 +5592,19 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>429.5088224239596</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L18" t="n">
-        <v>924.8344286397182</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M18" t="n">
-        <v>1522.21291626627</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N18" t="n">
-        <v>1731.250242493492</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O18" t="n">
         <v>2283.159972732779</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>956.9553291057244</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C19" t="n">
-        <v>788.0191461778176</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D19" t="n">
-        <v>637.9025067654818</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2419.37169470969</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2199.770229732631</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1910.695003076829</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1656.010514870942</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1366.593344833982</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1138.603793935964</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1138.603793935964</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="20">
@@ -5741,7 +5741,7 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M21" t="n">
-        <v>1072.713683962606</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>1700.311647517212</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2252.221377756499</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2211.689992275817</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1922.614765620015</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1667.930277414128</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1378.513107377167</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1150.52355647915</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>929.7309773356195</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245706</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>411.9631215597619</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E25" t="n">
-        <v>264.0500279773688</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6212,16 +6212,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6233,13 +6233,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>251.562654109227</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L27" t="n">
-        <v>746.8882603249857</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M27" t="n">
-        <v>1344.266747951538</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>801.6918836311989</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>632.7557007032921</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>482.6390612909563</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>382.4184417036842</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>983.3403484614387</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6449,22 +6449,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6537,25 +6537,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M30" t="n">
-        <v>1074.481071167373</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N30" t="n">
-        <v>1702.079034721979</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656816</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>198.094482495415</v>
@@ -6646,7 +6646,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T31" t="n">
         <v>2243.385329532432</v>
@@ -6655,13 +6655,13 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W31" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y31" t="n">
         <v>1084.076049400516</v>
@@ -6689,7 +6689,7 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6774,19 +6774,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M33" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345476</v>
@@ -6874,22 +6874,22 @@
         <v>2179.340199382519</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
         <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
@@ -6932,25 +6932,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6977,7 +6977,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,28 +7011,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K36" t="n">
-        <v>315.9123021921482</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L36" t="n">
-        <v>315.9123021921482</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M36" t="n">
-        <v>913.2907898187001</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
-        <v>1540.888753373307</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319325</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150029</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942656</v>
+        <v>533.581456494266</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580115</v>
+        <v>411.221455958012</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345482</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7093,7 +7093,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K37" t="n">
         <v>483.8255460380728</v>
@@ -7169,7 +7169,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7178,19 +7178,19 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M39" t="n">
-        <v>1074.481071167373</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373307</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P39" t="n">
         <v>2516.421633107662</v>
@@ -7321,22 +7321,22 @@
         <v>411.2214559580112</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384018</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
         <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7357,7 +7357,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7400,19 +7400,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7488,25 +7488,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>417.9651836029414</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>913.2907898187001</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M42" t="n">
-        <v>913.2907898187001</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N42" t="n">
-        <v>1540.888753373307</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612594</v>
+        <v>1888.077129657224</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7546,34 +7546,34 @@
         <v>926.9575315319325</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384018</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
         <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,7 +7591,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
@@ -7634,19 +7634,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075813</v>
@@ -7725,25 +7725,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2294.325993963485</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,7 +7804,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
         <v>483.8255460380728</v>
@@ -7831,7 +7831,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -7840,7 +7840,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -8058,10 +8058,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8307,10 +8307,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8544,13 +8544,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783519</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8693,7 +8693,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>49.74439522492673</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8708,7 +8708,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>49.74439522492651</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9416,13 +9416,13 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9647,10 +9647,10 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9884,7 +9884,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10358,10 +10358,10 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O32" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10838,7 +10838,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -22547,25 +22547,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>196.4724004695684</v>
+        <v>90.03712328339297</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,13 +22592,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22607,13 +22607,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -22711,10 +22711,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>49.09391343150148</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>41.9409096566947</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22753,25 +22753,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>85.14112624278593</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.53704437734234</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1.537044377342596</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>155.3079857870325</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>60.16217041863455</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
         <v>81.80457674440903</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>1.537044377342269</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>1.537044377342227</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23656,19 +23656,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>143.6715153845045</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23707,10 +23707,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>20.24256885391677</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23899,7 +23899,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>153.7108110197799</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>211.9838267404999</v>
       </c>
     </row>
     <row r="20">
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>165.5113759375336</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F25" t="n">
-        <v>117.1847295890522</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24607,16 +24607,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>47.21554925516975</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -26326,7 +26326,7 @@
         <v>141148.1099675715</v>
       </c>
       <c r="G2" t="n">
-        <v>141250.6549457512</v>
+        <v>141250.654945751</v>
       </c>
       <c r="H2" t="n">
         <v>141250.6549457511</v>
@@ -26335,7 +26335,7 @@
         <v>141250.6549457511</v>
       </c>
       <c r="J2" t="n">
-        <v>141250.6549457512</v>
+        <v>141250.6549457511</v>
       </c>
       <c r="K2" t="n">
         <v>143682.3097262497</v>
@@ -26344,16 +26344,16 @@
         <v>143682.3097262497</v>
       </c>
       <c r="M2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262497</v>
       </c>
       <c r="N2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262497</v>
       </c>
       <c r="O2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262497</v>
       </c>
       <c r="P2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262497</v>
       </c>
     </row>
     <row r="3">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>111593.0946006681</v>
+        <v>111593.0946006682</v>
       </c>
       <c r="C4" t="n">
         <v>201064.5059277315</v>
@@ -26424,37 +26424,37 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>5759.938886718171</v>
+        <v>5759.938886718168</v>
       </c>
       <c r="F4" t="n">
         <v>5759.93888671817</v>
       </c>
       <c r="G4" t="n">
-        <v>5067.592601670462</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="H4" t="n">
         <v>5067.592601670443</v>
       </c>
       <c r="I4" t="n">
-        <v>5067.592601670442</v>
+        <v>5067.59260167044</v>
       </c>
       <c r="J4" t="n">
-        <v>5067.592601670442</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="K4" t="n">
+        <v>13058.4518647639</v>
+      </c>
+      <c r="L4" t="n">
+        <v>13058.4518647639</v>
+      </c>
+      <c r="M4" t="n">
+        <v>13058.45186476392</v>
+      </c>
+      <c r="N4" t="n">
         <v>13058.45186476391</v>
       </c>
-      <c r="L4" t="n">
+      <c r="O4" t="n">
         <v>13058.45186476391</v>
-      </c>
-      <c r="M4" t="n">
-        <v>13058.45186476393</v>
-      </c>
-      <c r="N4" t="n">
-        <v>13058.45186476393</v>
-      </c>
-      <c r="O4" t="n">
-        <v>13058.4518647639</v>
       </c>
       <c r="P4" t="n">
         <v>13058.45186476391</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-668170.1180767362</v>
+        <v>-668562.00916137</v>
       </c>
       <c r="C6" t="n">
         <v>-140241.2742648913</v>
@@ -26528,40 +26528,40 @@
         <v>-140241.2742648913</v>
       </c>
       <c r="E6" t="n">
-        <v>-901909.19721622</v>
+        <v>-901945.4000699153</v>
       </c>
       <c r="F6" t="n">
-        <v>34482.21230237749</v>
+        <v>34446.00944868209</v>
       </c>
       <c r="G6" t="n">
-        <v>27336.62552938316</v>
+        <v>27301.88760394738</v>
       </c>
       <c r="H6" t="n">
-        <v>35060.53252017357</v>
+        <v>35025.79459473785</v>
       </c>
       <c r="I6" t="n">
-        <v>35060.53252017351</v>
+        <v>35025.79459473788</v>
       </c>
       <c r="J6" t="n">
-        <v>-141362.6866724193</v>
+        <v>-141397.4245978551</v>
       </c>
       <c r="K6" t="n">
-        <v>8032.02401393863</v>
+        <v>8032.024013938615</v>
       </c>
       <c r="L6" t="n">
         <v>27459.74200757036</v>
       </c>
       <c r="M6" t="n">
-        <v>-96748.7687004882</v>
+        <v>-96748.76870048813</v>
       </c>
       <c r="N6" t="n">
-        <v>27459.74200757024</v>
+        <v>27459.74200757034</v>
       </c>
       <c r="O6" t="n">
         <v>27459.74200757034</v>
       </c>
       <c r="P6" t="n">
-        <v>8032.024013938513</v>
+        <v>8032.024013938571</v>
       </c>
     </row>
   </sheetData>
@@ -26710,10 +26710,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M2" t="n">
         <v>24.28464749203971</v>
@@ -26722,7 +26722,7 @@
         <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203973</v>
@@ -26741,7 +26741,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1358.041048716386</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="3">
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="3">
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>170.7244318170167</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>103.4801383662365</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27555,7 +27555,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
@@ -27588,13 +27588,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,16 +27616,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>2.917934754503335</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>376.1259600899984</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,10 +27774,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>34.31260736577687</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27828,19 +27828,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>311.6142138874417</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27907,19 +27907,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>202.9129072143118</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>136.900328512751</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,13 +28017,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,10 +28065,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>158.291152174426</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28570,7 +28570,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="35">
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30049,7 +30049,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="C43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="D43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="E43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="F43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="G43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="H43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="I43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="J43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="K43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="L43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="M43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="N43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="O43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="R43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="S43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="T43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="U43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="V43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="W43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="X43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
     <row r="44">
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31835,7 +31835,7 @@
         <v>28.2113810308819</v>
       </c>
       <c r="I12" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>275.9770021735818</v>
@@ -31847,16 +31847,16 @@
         <v>634.2436048745724</v>
       </c>
       <c r="M12" t="n">
-        <v>740.1323715504301</v>
+        <v>403.4749205278532</v>
       </c>
       <c r="N12" t="n">
-        <v>759.7214730927637</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P12" t="n">
-        <v>144.1098831113609</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q12" t="n">
         <v>372.8719498286952</v>
@@ -32075,13 +32075,13 @@
         <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
         <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
-        <v>405.3797548743103</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>740.1323715504301</v>
@@ -32090,16 +32090,16 @@
         <v>759.7214730927637</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982453</v>
+        <v>320.2888041505564</v>
       </c>
       <c r="Q15" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S15" t="n">
         <v>54.2575834086216</v>
@@ -32312,10 +32312,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32324,10 +32324,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>342.490526454265</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>463.4318227833011</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32549,31 +32549,31 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>249.1672590991333</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>202.2352659288688</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,16 +32786,16 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>175.6052721551106</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32804,13 +32804,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,22 +33020,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>144.237359508534</v>
+        <v>229.6463482471742</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33047,7 +33047,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,28 +33257,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>301.6445156724565</v>
+        <v>616.375287159485</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33494,13 +33494,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>218.6425359394819</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33509,7 +33509,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33731,22 +33731,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>249.1672590991333</v>
       </c>
       <c r="K36" t="n">
-        <v>360.3952288121461</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33755,7 +33755,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33968,28 +33968,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>602.4605829984181</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>448.9178583921318</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34208,28 +34208,28 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>465.2641870096817</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>533.0479862785273</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34369,7 +34369,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34445,13 +34445,13 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,13 +34460,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>364.3208035245835</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34778,10 +34778,10 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -35027,10 +35027,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35413,7 +35413,7 @@
         <v>474.3741250380625</v>
       </c>
       <c r="L11" t="n">
-        <v>675.5219512913658</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M11" t="n">
         <v>728.287436302058</v>
@@ -35428,7 +35428,7 @@
         <v>553.8443926134828</v>
       </c>
       <c r="Q11" t="n">
-        <v>367.2547334404111</v>
+        <v>416.9991286653376</v>
       </c>
       <c r="R11" t="n">
         <v>127.3573607845841</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.049527853053107</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>149.1393755069151</v>
@@ -35495,16 +35495,16 @@
         <v>495.6892250946982</v>
       </c>
       <c r="M12" t="n">
-        <v>597.9983376284117</v>
+        <v>261.3408866058349</v>
       </c>
       <c r="N12" t="n">
-        <v>628.3797610094305</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P12" t="n">
-        <v>10.13547569703065</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q12" t="n">
         <v>232.8901757426737</v>
@@ -35723,13 +35723,13 @@
         <v>1.049527853053107</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
         <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
-        <v>266.8253750944361</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>597.9983376284117</v>
@@ -35738,16 +35738,16 @@
         <v>628.3797610094305</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P15" t="n">
-        <v>423.8217357839151</v>
+        <v>186.3143967362262</v>
       </c>
       <c r="Q15" t="n">
-        <v>232.8901757426737</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35890,7 +35890,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -35960,10 +35960,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35972,10 +35972,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>211.1488143709317</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>320.8355783388566</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36136,13 +36136,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>68.26085851453861</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36367,10 +36367,10 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
@@ -36434,16 +36434,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>37.76383318075158</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36452,13 +36452,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36604,7 +36604,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
         <v>696.488651224316</v>
@@ -36668,22 +36668,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>6.395920534175052</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36838,7 +36838,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36905,28 +36905,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>159.048271228012</v>
+        <v>473.7790427150405</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -37078,10 +37078,10 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37157,7 +37157,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>235.5010321525773</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37227,10 +37227,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
         <v>450.5570744930848</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37324,7 +37324,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37379,22 +37379,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="K36" t="n">
-        <v>222.5537898377871</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37403,7 +37403,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789211</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37558,7 +37558,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37616,28 +37616,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>471.1188709150848</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>314.9434509778015</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37798,7 +37798,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>327.4227480353227</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>399.073578864197</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K43" t="n">
         <v>288.6172359016746</v>
@@ -37953,7 +37953,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q43" t="n">
         <v>144.686904791938</v>
@@ -38017,7 +38017,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,13 +38108,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>220.9409070342396</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>224.339029438562</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>
